--- a/Broadcloth Solution/Broadcloth DM Solution Documentation/Broadcloth Solution Workbook.xlsx
+++ b/Broadcloth Solution/Broadcloth DM Solution Documentation/Broadcloth Solution Workbook.xlsx
@@ -1,27 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marion\OneDrive\School\Fall 2018\INFO 3300\Broadcloth DM Solution\DM Solution Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexr\Downloads\Data Warehousing\Broadcloth DM Solution\DM Solution Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E2064342-0B02-48E9-B56F-E75D2D4F29BA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A81833-0389-455C-AB1D-6D9D5A415948}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7480" windowHeight="4320" tabRatio="950" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18150" windowHeight="6345" tabRatio="950" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Members" sheetId="7" r:id="rId1"/>
-    <sheet name="Data Warehouse" sheetId="1" r:id="rId2"/>
+    <sheet name="Roles" sheetId="6" r:id="rId2"/>
+    <sheet name="Data Warehouse" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="102">
   <si>
     <t>Object Name</t>
   </si>
@@ -56,6 +64,15 @@
     <t>Dimension Key Column</t>
   </si>
   <si>
+    <t>Bob Smith</t>
+  </si>
+  <si>
+    <t>Sue Jones</t>
+  </si>
+  <si>
+    <t>Tim Thomas</t>
+  </si>
+  <si>
     <t>Dimesion Table</t>
   </si>
   <si>
@@ -74,6 +91,15 @@
     <t>Mon - Fri</t>
   </si>
   <si>
+    <t>555-5676</t>
+  </si>
+  <si>
+    <t>555-2567</t>
+  </si>
+  <si>
+    <t>555-2243</t>
+  </si>
+  <si>
     <t>Dimension Column</t>
   </si>
   <si>
@@ -309,15 +335,6 @@
   </si>
   <si>
     <t>Broadcloth.dbo.ProductionBatch.QuantityProducedv</t>
-  </si>
-  <si>
-    <t>214-929-9872</t>
-  </si>
-  <si>
-    <t>314-578-5442</t>
-  </si>
-  <si>
-    <t>720-301-8619</t>
   </si>
 </sst>
 </file>
@@ -465,12 +482,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -842,70 +860,70 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2">
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3">
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4">
         <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -914,713 +932,752 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A2:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="54.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" thickBot="1">
-      <c r="A1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:5" ht="19.5" thickBot="1">
+      <c r="A3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A3" s="8" t="s">
+    <row r="5" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A9" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A11" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A12" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A15" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A4" s="10" t="s">
+      <c r="D16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A17" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A22" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A23" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A24" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A25" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A26" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A28" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A29" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A30" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A31" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A32" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A33" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A34" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A35" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A36" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A37" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A5" s="8" t="s">
+      <c r="B37" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A38" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A39" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A6" s="8" t="s">
+      <c r="B39" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A40" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A7" s="8" t="s">
+      <c r="B40" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A41" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A8" s="8" t="s">
+      <c r="B41" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A42" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A9" s="8" t="s">
+      <c r="B42" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A10" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A11" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A13" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A14" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A15" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A16" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A17" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A18" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A19" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A20" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A21" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A22" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A23" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A24" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A25" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A26" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A27" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A28" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A29" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A30" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A31" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A32" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A33" s="8" t="s">
+      <c r="E42" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A34" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A35" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A36" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A37" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A38" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A39" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A40" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A41" s="7" t="s">
+    </row>
+    <row r="43" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A43" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B43" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C43" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D43" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E43" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" thickBot="1">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
+    <row r="44" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
